--- a/Data/EC/NIT-9006681358.xlsx
+++ b/Data/EC/NIT-9006681358.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{674A5BF3-FB22-4D7F-9988-5D9691441D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B835E37-7E34-4B66-92A5-E3DB0505CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{327E0A37-4978-4C15-83BE-3400C364350E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E83C6109-FC72-45E4-8B1E-39A2BAC4E138}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,202 +71,202 @@
     <t>URIEL MOSQUERA MEJIA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -365,7 +365,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -378,9 +380,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -580,23 +580,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,10 +624,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +680,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650724AA-2DFC-835D-ECBD-F311FC0080F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1956041B-A560-0DBD-CB0A-AAA47373BF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,7 +1031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122FE569-DFB6-4FCA-B86A-6E52B2197D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D4BB3A-9FB9-4800-B962-B7D6937F87A9}">
   <dimension ref="B2:J87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1209,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16666</v>
+        <v>12560</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1232,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>12560</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>12560</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>12560</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1301,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1324,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1347,7 +1347,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1370,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1393,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1462,7 +1462,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1485,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1508,7 +1508,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1531,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1554,7 +1554,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1577,7 +1577,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1600,7 +1600,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1623,7 +1623,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1646,7 +1646,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1669,7 +1669,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1692,7 +1692,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1715,7 +1715,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1738,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1761,7 +1761,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1784,7 +1784,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25120</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -2129,7 +2129,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2152,7 +2152,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2175,7 +2175,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2198,7 +2198,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2221,7 +2221,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2244,7 +2244,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2267,7 +2267,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2290,7 +2290,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2313,7 +2313,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2336,7 +2336,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2359,7 +2359,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2382,7 +2382,7 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2405,7 +2405,7 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2428,7 +2428,7 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2451,7 +2451,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2474,7 +2474,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2497,7 +2497,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2520,7 +2520,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2543,7 +2543,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2566,7 +2566,7 @@
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2589,7 +2589,7 @@
         <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2612,7 +2612,7 @@
         <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>25120</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2635,7 +2635,7 @@
         <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>12560</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2658,7 +2658,7 @@
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>12560</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2681,7 +2681,7 @@
         <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>12560</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2704,7 +2704,7 @@
         <v>76</v>
       </c>
       <c r="F81" s="24">
-        <v>12560</v>
+        <v>16666</v>
       </c>
       <c r="G81" s="24">
         <v>781242</v>
